--- a/겨울 정모 정산.xlsx
+++ b/겨울 정모 정산.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hs/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hs/Desktop/python_workspaces/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD74B3-5B9D-904C-8868-86686BDA9496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8920B8A2-EE0F-104A-AFB8-D522605250BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{53909760-AAA7-984B-9C8F-4C1F73CD22E2}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19900" activeTab="1" xr2:uid="{53909760-AAA7-984B-9C8F-4C1F73CD22E2}"/>
   </bookViews>
   <sheets>
     <sheet name="사용 내역" sheetId="1" r:id="rId1"/>
     <sheet name="입금 및 후원 내역" sheetId="2" r:id="rId2"/>
+    <sheet name="영수증 스캔본" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -115,18 +116,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>박상연</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>박성희</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>서대웅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>송인혁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -268,6 +261,82 @@
   </si>
   <si>
     <t>롯데월드 자유이용권 4장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은홍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안경모</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정훈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 대여(30명기준)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명추가(인당1만원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물세트, 음료 구매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호준 구매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드카 구매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장지영 구매</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤지항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도너츠(12개입) 3박스 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설고은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -578,6 +647,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,16 +755,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,58 +782,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,6 +876,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>235725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>169050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552792</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>199630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E000DC92-99F6-994B-9DC6-E10DB4D04DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="235725" y="626250"/>
+          <a:ext cx="3415867" cy="7802980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>493963</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49030</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664366C9-D390-8F43-BB80-A702CB17A349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3592763" y="561975"/>
+          <a:ext cx="3428567" cy="7802979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56877</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373944</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3D283D-F763-DA4F-A125-30B1CAA4FF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7803877" y="571500"/>
+          <a:ext cx="3415867" cy="7802980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749877</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432274</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E197967-D1CF-7B45-B2E9-D4BDC8698018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749877" y="1932708"/>
+          <a:ext cx="5879997" cy="5750684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD77CCA-0DB2-D54B-BED3-A2AA4A0BEBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="9696450"/>
+          <a:ext cx="4600575" cy="6289675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,683 +1427,704 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="21">
+        <f>'입금 및 후원 내역'!E5+'입금 및 후원 내역'!H17</f>
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="22">
-        <f>'입금 및 후원 내역'!E5+'입금 및 후원 내역'!H17</f>
-        <v>1740000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="B2" s="42">
         <v>100000</v>
       </c>
       <c r="C2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="22">
+        <v>50</v>
+      </c>
+      <c r="F2" s="21">
         <f>SUM(B2:B194)</f>
-        <v>100000</v>
+        <v>951490</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="43">
+        <f>450000 + 10000 * ('입금 및 후원 내역'!C47 - 30)</f>
+        <v>470000</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="22">
+        <v>51</v>
+      </c>
+      <c r="F3" s="21">
         <f>F1-F2</f>
-        <v>1640000</v>
+        <v>1088510</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="43">
+        <v>338020</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="43">
+        <v>43470</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2"/>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2"/>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
       <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2"/>
       <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2"/>
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2"/>
       <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2"/>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2"/>
       <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="20"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="20"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
       <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
       <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2"/>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="2"/>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="20"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="20"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="2"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="20"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="2"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="20"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2"/>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="20"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="2"/>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="20"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="2"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="20"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="20"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="2"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="20"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="2"/>
       <c r="C58" s="7"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="20"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="2"/>
       <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="20"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2"/>
       <c r="C60" s="7"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="20"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2"/>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="20"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="2"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="20"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="2"/>
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="20"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="2"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="20"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="2"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="20"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="2"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="20"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2"/>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="20"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="2"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="20"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="2"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="20"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="2"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="20"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="2"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="20"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="2"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="20"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="2"/>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="20"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="2"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="20"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="2"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="20"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="2"/>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="20"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="2"/>
       <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="20"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="2"/>
       <c r="C78" s="7"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="20"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="2"/>
       <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="20"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="2"/>
       <c r="C80" s="7"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="20"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="2"/>
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="20"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="2"/>
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="20"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="2"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="20"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="2"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="20"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="2"/>
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="20"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="2"/>
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="20"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="2"/>
       <c r="C87" s="7"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="20"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="2"/>
       <c r="C88" s="7"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="20"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="2"/>
       <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="20"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="2"/>
       <c r="C90" s="7"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="20"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="2"/>
       <c r="C91" s="7"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="20"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="2"/>
       <c r="C92" s="7"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="20"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="2"/>
       <c r="C93" s="7"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="20"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="2"/>
       <c r="C94" s="7"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="20"/>
+      <c r="A95" s="19"/>
       <c r="B95" s="2"/>
       <c r="C95" s="7"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="20"/>
+      <c r="A96" s="19"/>
       <c r="B96" s="2"/>
       <c r="C96" s="7"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="20"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="2"/>
       <c r="C97" s="7"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="20"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="2"/>
       <c r="C98" s="7"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="20"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="2"/>
       <c r="C99" s="7"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="20"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="2"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="20"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="2"/>
       <c r="C101" s="7"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="20"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="2"/>
       <c r="C102" s="7"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="20"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="2"/>
       <c r="C103" s="7"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="20"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="2"/>
       <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="20"/>
+      <c r="A105" s="19"/>
       <c r="B105" s="2"/>
       <c r="C105" s="7"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="20"/>
+      <c r="A106" s="19"/>
       <c r="B106" s="2"/>
       <c r="C106" s="7"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="20"/>
+      <c r="A107" s="19"/>
       <c r="B107" s="2"/>
       <c r="C107" s="7"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="20"/>
+      <c r="A108" s="19"/>
       <c r="B108" s="2"/>
       <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="20"/>
+      <c r="A109" s="19"/>
       <c r="B109" s="2"/>
       <c r="C109" s="7"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="20"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="2"/>
       <c r="C110" s="7"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="20"/>
+      <c r="A111" s="19"/>
       <c r="B111" s="2"/>
       <c r="C111" s="7"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="20"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="2"/>
       <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="20"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="2"/>
       <c r="C113" s="7"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="20"/>
+      <c r="A114" s="19"/>
       <c r="B114" s="2"/>
       <c r="C114" s="7"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="20"/>
+      <c r="A115" s="19"/>
       <c r="B115" s="2"/>
       <c r="C115" s="7"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="20"/>
+      <c r="A116" s="19"/>
       <c r="B116" s="2"/>
       <c r="C116" s="7"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="20"/>
+      <c r="A117" s="19"/>
       <c r="B117" s="2"/>
       <c r="C117" s="7"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="20"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="2"/>
       <c r="C118" s="7"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="20"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="2"/>
       <c r="C119" s="7"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="20"/>
+      <c r="A120" s="19"/>
       <c r="B120" s="2"/>
       <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="20"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="2"/>
       <c r="C121" s="7"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="20"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="2"/>
       <c r="C122" s="7"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="20"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="2"/>
       <c r="C123" s="7"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="20"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="2"/>
       <c r="C124" s="7"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="20"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="2"/>
       <c r="C125" s="7"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="20"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="2"/>
       <c r="C126" s="7"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="20"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="2"/>
       <c r="C127" s="7"/>
     </row>
     <row r="128" spans="1:3" ht="19" thickBot="1">
-      <c r="A128" s="21"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
     </row>
@@ -1720,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BA0B2-1E4C-4749-99DE-63646BDF63E8}">
-  <dimension ref="B1:L46"/>
+  <dimension ref="B1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1735,120 +2151,129 @@
     <col min="7" max="8" width="10.7109375" style="1"/>
     <col min="9" max="9" width="17.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:12" ht="19" thickBot="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="G2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="K2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="G2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="24"/>
-      <c r="K2" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="5">
         <f>COUNTIF(D7:D46, "O")</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="27"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="33">
+        <v>36</v>
+      </c>
+      <c r="E4" s="26">
         <v>60000</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="13">
         <v>200000</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>44</v>
+      <c r="I4" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="19" thickBot="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="38">
+        <v>37</v>
+      </c>
+      <c r="E5" s="27">
         <f>E4*E3</f>
-        <v>1440000</v>
+        <v>1740000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="13">
         <v>100000</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="7"/>
+      <c r="I5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="18"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="7"/>
+      <c r="I6" s="17"/>
+      <c r="K6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="6">
@@ -1865,8 +2290,8 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="18"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="17"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12">
@@ -1882,8 +2307,8 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="18"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12">
@@ -1899,8 +2324,8 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="18"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12">
@@ -1916,8 +2341,8 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="18"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="17"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12">
@@ -1935,8 +2360,8 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="17"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12">
@@ -1954,8 +2379,8 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="18"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="17"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="2:12">
@@ -1971,8 +2396,8 @@
       <c r="E13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="18"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="17"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="2:12">
@@ -1988,8 +2413,8 @@
       <c r="E14" s="7"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="18"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="17"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12">
@@ -2005,8 +2430,8 @@
       <c r="E15" s="7"/>
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="18"/>
-      <c r="K15" s="20"/>
+      <c r="I15" s="17"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="19" thickBot="1">
@@ -2022,8 +2447,8 @@
       <c r="E16" s="7"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="19"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:8" ht="19" thickBot="1">
@@ -2037,10 +2462,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="G17" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="40">
+      <c r="G17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="28">
         <f>SUM(H4:H16)</f>
         <v>300000</v>
       </c>
@@ -2086,7 +2511,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -2098,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -2110,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -2134,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
@@ -2221,7 +2646,9 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5">
@@ -2229,7 +2656,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
@@ -2241,7 +2668,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
@@ -2252,32 +2679,48 @@
       <c r="B35" s="6">
         <v>29</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="6">
         <v>31</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="6">
         <v>32</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="2:5">
@@ -2324,7 +2767,6 @@
       <c r="B44" s="6">
         <v>38</v>
       </c>
-      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="7"/>
     </row>
@@ -2337,12 +2779,21 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="2:5" ht="19" thickBot="1">
-      <c r="B46" s="8">
+      <c r="B46" s="45">
         <v>40</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="2:5" ht="19" thickBot="1">
+      <c r="B47" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="48">
+        <f>COUNTA(C7:C46)</f>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2354,4 +2805,46 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FA8EA6-72CD-5840-B254-D0635C424CE8}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <cols>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="41">
+        <v>338020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>43470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>